--- a/uploads/studentdata/uploadExample.xlsx
+++ b/uploads/studentdata/uploadExample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucus/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucus/Documents/Workdoc/培训派/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,25 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="1">
       <t>xing'm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <rPh sb="0" eb="1">
-      <t>mi'm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <rPh sb="0" eb="1">
-      <t>shou'ji'h</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,6 +190,63 @@
     <rPh sb="0" eb="1">
       <t>xing'zheng'bu</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码(不填则默认手机后六位)</t>
+    <rPh sb="0" eb="1">
+      <t>mi'm</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu't</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mo'r</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shou'ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>liu'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号(只需填一个)</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ji'h</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'xu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005555</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,9 +301,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -545,14 +589,14 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -560,135 +604,135 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>13918771234</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>123456</v>
+        <v>13800008888</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>100001</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>13918767701</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3">
-        <v>123456</v>
+        <v>13700007777</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>100002</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>13918784320</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>123456</v>
+        <v>13600006666</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>100003</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>13918790863</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>123456</v>
+        <v>15800005555</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>100004</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/studentdata/uploadExample.xlsx
+++ b/uploads/studentdata/uploadExample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucus/Documents/Workdoc/培训派/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Library/WebServer/Documents/pai/pc/uploads/studentdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -218,35 +218,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手机号(只需填一个)</t>
+    <t>008888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
     <rPh sb="0" eb="1">
       <t>shou'ji'h</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhi'xu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>tian</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yi'ge</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>008888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>007777</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>006666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005555</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +580,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -604,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -639,7 +630,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -668,7 +659,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -694,7 +685,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -720,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>

--- a/uploads/studentdata/uploadExample.xlsx
+++ b/uploads/studentdata/uploadExample.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="2380" yWindow="800" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="学员数据" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="1">
@@ -68,13 +71,6 @@
     <t>邮箱</t>
     <rPh sb="0" eb="1">
       <t>you'xiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <rPh sb="0" eb="1">
-      <t>nv</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,31 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>市场部</t>
-    <rPh sb="0" eb="1">
-      <t>shi'chang'bu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营销部</t>
-    <rPh sb="0" eb="1">
-      <t>ying'xiao'bu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术部</t>
-    <rPh sb="0" eb="1">
-      <t>ji'shu'bu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二级部门(无可不填)</t>
     <rPh sb="0" eb="1">
       <t>er'ji</t>
@@ -133,63 +104,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">技术部 </t>
-    <rPh sb="1" eb="2">
-      <t>ji'shu'bu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">女 </t>
-    <rPh sb="1" eb="2">
-      <t>nv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">男 </t>
-    <rPh sb="1" eb="2">
-      <t>nan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章武</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯祥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李志昊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘伟庆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>aaa@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddd@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政部</t>
-    <rPh sb="0" eb="1">
-      <t>xing'zheng'bu</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -218,25 +133,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>008888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>007777</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>006666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005555</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手机号</t>
     <rPh sb="0" eb="1">
       <t>shou'ji'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试学员</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xue'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力资源</t>
+    <rPh sb="0" eb="1">
+      <t>ren'li'zi'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事部</t>
+    <rPh sb="0" eb="1">
+      <t>ren'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -577,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -595,13 +521,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -613,24 +539,21 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>13800008888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -642,99 +565,18 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>13700007777</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>100002</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>13600006666</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>100003</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>15800005555</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>100004</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>